--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Itgb6</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H2">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I2">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J2">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.252720203046769</v>
+        <v>0.255482</v>
       </c>
       <c r="N2">
-        <v>0.252720203046769</v>
+        <v>0.510964</v>
       </c>
       <c r="O2">
-        <v>0.03619842884905233</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P2">
-        <v>0.03619842884905233</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q2">
-        <v>0.7094717334200071</v>
+        <v>0.8414389088700001</v>
       </c>
       <c r="R2">
-        <v>0.7094717334200071</v>
+        <v>3.36575563548</v>
       </c>
       <c r="S2">
-        <v>0.002532909451146192</v>
+        <v>0.00252551628640051</v>
       </c>
       <c r="T2">
-        <v>0.002532909451146192</v>
+        <v>0.001806729366974692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H3">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I3">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J3">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.55694002074259</v>
+        <v>2.731042</v>
       </c>
       <c r="N3">
-        <v>2.55694002074259</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O3">
-        <v>0.3662438154776892</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P3">
-        <v>0.3662438154776892</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q3">
-        <v>7.178202007187834</v>
+        <v>8.99478241347</v>
       </c>
       <c r="R3">
-        <v>7.178202007187834</v>
+        <v>53.96869448082001</v>
       </c>
       <c r="S3">
-        <v>0.02562714601552567</v>
+        <v>0.02699717025013043</v>
       </c>
       <c r="T3">
-        <v>0.02562714601552567</v>
+        <v>0.02897026278079061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H4">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I4">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J4">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.322475853848668</v>
+        <v>0.164664</v>
       </c>
       <c r="N4">
-        <v>0.322475853848668</v>
+        <v>0.493992</v>
       </c>
       <c r="O4">
-        <v>0.04618989344875665</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P4">
-        <v>0.04618989344875665</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q4">
-        <v>0.9052996169592796</v>
+        <v>0.54232664724</v>
       </c>
       <c r="R4">
-        <v>0.9052996169592796</v>
+        <v>3.25395988344</v>
       </c>
       <c r="S4">
-        <v>0.003232041317363812</v>
+        <v>0.001627753085477073</v>
       </c>
       <c r="T4">
-        <v>0.003232041317363812</v>
+        <v>0.00174671768157945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H5">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I5">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J5">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.84938801283048</v>
+        <v>0.05316166666666666</v>
       </c>
       <c r="N5">
-        <v>3.84938801283048</v>
+        <v>0.159485</v>
       </c>
       <c r="O5">
-        <v>0.5513678622245018</v>
+        <v>0.007045618152102916</v>
       </c>
       <c r="P5">
-        <v>0.5513678622245018</v>
+        <v>0.008640412403684879</v>
       </c>
       <c r="Q5">
-        <v>10.80654396895853</v>
+        <v>0.175089809825</v>
       </c>
       <c r="R5">
-        <v>10.80654396895853</v>
+        <v>1.05053885895</v>
       </c>
       <c r="S5">
-        <v>0.03858081451850842</v>
+        <v>0.0005255190384405233</v>
       </c>
       <c r="T5">
-        <v>0.03858081451850842</v>
+        <v>0.0005639266819031455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.88151546952529</v>
+        <v>3.293535</v>
       </c>
       <c r="H6">
-        <v>3.88151546952529</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I6">
-        <v>0.09674669318312853</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J6">
-        <v>0.09674669318312853</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.252720203046769</v>
+        <v>0.41846</v>
       </c>
       <c r="N6">
-        <v>0.252720203046769</v>
+        <v>1.25538</v>
       </c>
       <c r="O6">
-        <v>0.03619842884905233</v>
+        <v>0.05545931037895075</v>
       </c>
       <c r="P6">
-        <v>0.03619842884905233</v>
+        <v>0.06801267155743752</v>
       </c>
       <c r="Q6">
-        <v>0.9809373775876062</v>
+        <v>1.3782126561</v>
       </c>
       <c r="R6">
-        <v>0.9809373775876062</v>
+        <v>8.2692759366</v>
       </c>
       <c r="S6">
-        <v>0.003502078289570574</v>
+        <v>0.004136602755603751</v>
       </c>
       <c r="T6">
-        <v>0.003502078289570574</v>
+        <v>0.00443892703343619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88151546952529</v>
+        <v>3.293535</v>
       </c>
       <c r="H7">
-        <v>3.88151546952529</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I7">
-        <v>0.09674669318312853</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J7">
-        <v>0.09674669318312853</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.55694002074259</v>
+        <v>3.922542</v>
       </c>
       <c r="N7">
-        <v>2.55694002074259</v>
+        <v>7.845084</v>
       </c>
       <c r="O7">
-        <v>0.3662438154776892</v>
+        <v>0.5198620519344028</v>
       </c>
       <c r="P7">
-        <v>0.3662438154776892</v>
+        <v>0.4250227990190287</v>
       </c>
       <c r="Q7">
-        <v>9.924802245160679</v>
+        <v>12.91902936597</v>
       </c>
       <c r="R7">
-        <v>9.924802245160679</v>
+        <v>51.67611746388</v>
       </c>
       <c r="S7">
-        <v>0.03543287804623834</v>
+        <v>0.03877550553498888</v>
       </c>
       <c r="T7">
-        <v>0.03543287804623834</v>
+        <v>0.02773961306311851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H8">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J8">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.322475853848668</v>
+        <v>0.255482</v>
       </c>
       <c r="N8">
-        <v>0.322475853848668</v>
+        <v>0.510964</v>
       </c>
       <c r="O8">
-        <v>0.04618989344875665</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P8">
-        <v>0.04618989344875665</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q8">
-        <v>1.251695015261981</v>
+        <v>1.109251917921333</v>
       </c>
       <c r="R8">
-        <v>1.251695015261981</v>
+        <v>6.655511507528</v>
       </c>
       <c r="S8">
-        <v>0.004468719449648258</v>
+        <v>0.003329337109206751</v>
       </c>
       <c r="T8">
-        <v>0.004468719449648258</v>
+        <v>0.003572662247410592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H9">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J9">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.84938801283048</v>
+        <v>2.731042</v>
       </c>
       <c r="N9">
-        <v>3.84938801283048</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O9">
-        <v>0.5513678622245018</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P9">
-        <v>0.5513678622245018</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q9">
-        <v>14.94145912000672</v>
+        <v>11.85763997629467</v>
       </c>
       <c r="R9">
-        <v>14.94145912000672</v>
+        <v>106.718759786652</v>
       </c>
       <c r="S9">
-        <v>0.05334301739767137</v>
+        <v>0.03558982424359534</v>
       </c>
       <c r="T9">
-        <v>0.05334301739767137</v>
+        <v>0.05728636841045192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.66838340531167</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H10">
-        <v>5.66838340531167</v>
+        <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.1412843397027848</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J10">
-        <v>0.1412843397027848</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.252720203046769</v>
+        <v>0.164664</v>
       </c>
       <c r="N10">
-        <v>0.252720203046769</v>
+        <v>0.493992</v>
       </c>
       <c r="O10">
-        <v>0.03619842884905233</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P10">
-        <v>0.03619842884905233</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q10">
-        <v>1.432515005137301</v>
+        <v>0.7149382649760001</v>
       </c>
       <c r="R10">
-        <v>1.432515005137301</v>
+        <v>6.434444384783999</v>
       </c>
       <c r="S10">
-        <v>0.005114271118216595</v>
+        <v>0.002145834014726754</v>
       </c>
       <c r="T10">
-        <v>0.005114271118216595</v>
+        <v>0.003453993958327501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.66838340531167</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H11">
-        <v>5.66838340531167</v>
+        <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.1412843397027848</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J11">
-        <v>0.1412843397027848</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.55694002074259</v>
+        <v>0.05316166666666666</v>
       </c>
       <c r="N11">
-        <v>2.55694002074259</v>
+        <v>0.159485</v>
       </c>
       <c r="O11">
-        <v>0.3662438154776892</v>
+        <v>0.007045618152102916</v>
       </c>
       <c r="P11">
-        <v>0.3662438154776892</v>
+        <v>0.008640412403684879</v>
       </c>
       <c r="Q11">
-        <v>14.49371638195457</v>
+        <v>0.2308173597744444</v>
       </c>
       <c r="R11">
-        <v>14.49371638195457</v>
+        <v>2.07735623797</v>
       </c>
       <c r="S11">
-        <v>0.05174451563999389</v>
+        <v>0.000692781133780904</v>
       </c>
       <c r="T11">
-        <v>0.05174451563999389</v>
+        <v>0.001115119731582417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.66838340531167</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H12">
-        <v>5.66838340531167</v>
+        <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.1412843397027848</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J12">
-        <v>0.1412843397027848</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.322475853848668</v>
+        <v>0.41846</v>
       </c>
       <c r="N12">
-        <v>0.322475853848668</v>
+        <v>1.25538</v>
       </c>
       <c r="O12">
-        <v>0.04618989344875665</v>
+        <v>0.05545931037895075</v>
       </c>
       <c r="P12">
-        <v>0.04618989344875665</v>
+        <v>0.06801267155743752</v>
       </c>
       <c r="Q12">
-        <v>1.827916778569501</v>
+        <v>1.816869906973333</v>
       </c>
       <c r="R12">
-        <v>1.827916778569501</v>
+        <v>16.35182916276</v>
       </c>
       <c r="S12">
-        <v>0.006525908596849571</v>
+        <v>0.005453199860337156</v>
       </c>
       <c r="T12">
-        <v>0.006525908596849571</v>
+        <v>0.00877762177404731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.66838340531167</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H13">
-        <v>5.66838340531167</v>
+        <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.1412843397027848</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J13">
-        <v>0.1412843397027848</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84938801283048</v>
+        <v>3.922542</v>
       </c>
       <c r="N13">
-        <v>3.84938801283048</v>
+        <v>7.845084</v>
       </c>
       <c r="O13">
-        <v>0.5513678622245018</v>
+        <v>0.5198620519344028</v>
       </c>
       <c r="P13">
-        <v>0.5513678622245018</v>
+        <v>0.4250227990190287</v>
       </c>
       <c r="Q13">
-        <v>21.81980713253396</v>
+        <v>17.030895470628</v>
       </c>
       <c r="R13">
-        <v>21.81980713253396</v>
+        <v>102.185372823768</v>
       </c>
       <c r="S13">
-        <v>0.07789964434772478</v>
+        <v>0.05111696574718402</v>
       </c>
       <c r="T13">
-        <v>0.07789964434772478</v>
+        <v>0.05485285741180373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1278,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>27.763154554531</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>27.763154554531</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.6919960558115424</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J14">
-        <v>0.6919960558115424</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.252720203046769</v>
+        <v>0.255482</v>
       </c>
       <c r="N14">
-        <v>0.252720203046769</v>
+        <v>0.510964</v>
       </c>
       <c r="O14">
-        <v>0.03619842884905233</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P14">
-        <v>0.03619842884905233</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q14">
-        <v>7.016310056239904</v>
+        <v>0.02585307518666667</v>
       </c>
       <c r="R14">
-        <v>7.016310056239904</v>
+        <v>0.15511845112</v>
       </c>
       <c r="S14">
-        <v>0.02504916999011896</v>
+        <v>7.75960818416956E-05</v>
       </c>
       <c r="T14">
-        <v>0.02504916999011896</v>
+        <v>8.326720396567474E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1340,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>27.763154554531</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>27.763154554531</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.6919960558115424</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J15">
-        <v>0.6919960558115424</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.55694002074259</v>
+        <v>2.731042</v>
       </c>
       <c r="N15">
-        <v>2.55694002074259</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O15">
-        <v>0.3662438154776892</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P15">
-        <v>0.3662438154776892</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q15">
-        <v>70.98872098254222</v>
+        <v>0.2763632434533334</v>
       </c>
       <c r="R15">
-        <v>70.98872098254222</v>
+        <v>2.48726919108</v>
       </c>
       <c r="S15">
-        <v>0.2534392757759313</v>
+        <v>0.0008294837152719489</v>
       </c>
       <c r="T15">
-        <v>0.2534392757759313</v>
+        <v>0.00133515999905761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1402,111 +1408,979 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>27.763154554531</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>27.763154554531</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.6919960558115424</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J16">
-        <v>0.6919960558115424</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.322475853848668</v>
+        <v>0.164664</v>
       </c>
       <c r="N16">
-        <v>0.322475853848668</v>
+        <v>0.493992</v>
       </c>
       <c r="O16">
-        <v>0.04618989344875665</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P16">
-        <v>0.04618989344875665</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q16">
-        <v>8.95294697050492</v>
+        <v>0.01666289904</v>
       </c>
       <c r="R16">
-        <v>8.95294697050492</v>
+        <v>0.14996609136</v>
       </c>
       <c r="S16">
-        <v>0.03196322408489501</v>
+        <v>5.001245183762835E-05</v>
       </c>
       <c r="T16">
-        <v>0.03196322408489501</v>
+        <v>8.050142988823399E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.30358</v>
+      </c>
+      <c r="I17">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J17">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05316166666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.159485</v>
+      </c>
+      <c r="O17">
+        <v>0.007045618152102916</v>
+      </c>
+      <c r="P17">
+        <v>0.008640412403684879</v>
+      </c>
+      <c r="Q17">
+        <v>0.005379606255555555</v>
+      </c>
+      <c r="R17">
+        <v>0.0484164563</v>
+      </c>
+      <c r="S17">
+        <v>1.61464879619997E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.598983494818742E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.30358</v>
+      </c>
+      <c r="I18">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J18">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.41846</v>
+      </c>
+      <c r="N18">
+        <v>1.25538</v>
+      </c>
+      <c r="O18">
+        <v>0.05545931037895075</v>
+      </c>
+      <c r="P18">
+        <v>0.06801267155743752</v>
+      </c>
+      <c r="Q18">
+        <v>0.04234536226666667</v>
+      </c>
+      <c r="R18">
+        <v>0.3811082604</v>
+      </c>
+      <c r="S18">
+        <v>0.000127096454574005</v>
+      </c>
+      <c r="T18">
+        <v>0.000204577979103085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.30358</v>
+      </c>
+      <c r="I19">
+        <v>0.002291706364640331</v>
+      </c>
+      <c r="J19">
+        <v>0.003007939173956966</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.922542</v>
+      </c>
+      <c r="N19">
+        <v>7.845084</v>
+      </c>
+      <c r="O19">
+        <v>0.5198620519344028</v>
+      </c>
+      <c r="P19">
+        <v>0.4250227990190287</v>
+      </c>
+      <c r="Q19">
+        <v>0.3969351001200001</v>
+      </c>
+      <c r="R19">
+        <v>2.38161060072</v>
+      </c>
+      <c r="S19">
+        <v>0.001191371173153053</v>
+      </c>
+      <c r="T19">
+        <v>0.001278442726994175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>27.763154554531</v>
-      </c>
-      <c r="H17">
-        <v>27.763154554531</v>
-      </c>
-      <c r="I17">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="J17">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.84938801283048</v>
-      </c>
-      <c r="N17">
-        <v>3.84938801283048</v>
-      </c>
-      <c r="O17">
-        <v>0.5513678622245018</v>
-      </c>
-      <c r="P17">
-        <v>0.5513678622245018</v>
-      </c>
-      <c r="Q17">
-        <v>106.8711543405716</v>
-      </c>
-      <c r="R17">
-        <v>106.8711543405716</v>
-      </c>
-      <c r="S17">
-        <v>0.3815443859605972</v>
-      </c>
-      <c r="T17">
-        <v>0.3815443859605972</v>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H20">
+        <v>24.511791</v>
+      </c>
+      <c r="I20">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J20">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.255482</v>
+      </c>
+      <c r="N20">
+        <v>0.510964</v>
+      </c>
+      <c r="O20">
+        <v>0.03385952189990703</v>
+      </c>
+      <c r="P20">
+        <v>0.02768247599107402</v>
+      </c>
+      <c r="Q20">
+        <v>2.087440462754</v>
+      </c>
+      <c r="R20">
+        <v>12.524642776524</v>
+      </c>
+      <c r="S20">
+        <v>0.006265297254504703</v>
+      </c>
+      <c r="T20">
+        <v>0.006723197512224094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.511791</v>
+      </c>
+      <c r="I21">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J21">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.731042</v>
+      </c>
+      <c r="N21">
+        <v>8.193125999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.3619502603258385</v>
+      </c>
+      <c r="P21">
+        <v>0.4438786563962321</v>
+      </c>
+      <c r="Q21">
+        <v>22.314243572074</v>
+      </c>
+      <c r="R21">
+        <v>200.828192148666</v>
+      </c>
+      <c r="S21">
+        <v>0.06697454202071783</v>
+      </c>
+      <c r="T21">
+        <v>0.1078040807973527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H22">
+        <v>24.511791</v>
+      </c>
+      <c r="I22">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J22">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.164664</v>
+      </c>
+      <c r="N22">
+        <v>0.493992</v>
+      </c>
+      <c r="O22">
+        <v>0.02182323730879784</v>
+      </c>
+      <c r="P22">
+        <v>0.02676298463254288</v>
+      </c>
+      <c r="Q22">
+        <v>1.345403184408</v>
+      </c>
+      <c r="R22">
+        <v>12.108628659672</v>
+      </c>
+      <c r="S22">
+        <v>0.004038127567170143</v>
+      </c>
+      <c r="T22">
+        <v>0.00649988215502189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H23">
+        <v>24.511791</v>
+      </c>
+      <c r="I23">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J23">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05316166666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.159485</v>
+      </c>
+      <c r="O23">
+        <v>0.007045618152102916</v>
+      </c>
+      <c r="P23">
+        <v>0.008640412403684879</v>
+      </c>
+      <c r="Q23">
+        <v>0.4343625541816667</v>
+      </c>
+      <c r="R23">
+        <v>3.909262987635</v>
+      </c>
+      <c r="S23">
+        <v>0.001303706892115925</v>
+      </c>
+      <c r="T23">
+        <v>0.002098482780072685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H24">
+        <v>24.511791</v>
+      </c>
+      <c r="I24">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J24">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.41846</v>
+      </c>
+      <c r="N24">
+        <v>1.25538</v>
+      </c>
+      <c r="O24">
+        <v>0.05545931037895075</v>
+      </c>
+      <c r="P24">
+        <v>0.06801267155743752</v>
+      </c>
+      <c r="Q24">
+        <v>3.41906802062</v>
+      </c>
+      <c r="R24">
+        <v>30.77161218558</v>
+      </c>
+      <c r="S24">
+        <v>0.01026207830344227</v>
+      </c>
+      <c r="T24">
+        <v>0.01651812592060475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H25">
+        <v>24.511791</v>
+      </c>
+      <c r="I25">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J25">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.922542</v>
+      </c>
+      <c r="N25">
+        <v>7.845084</v>
+      </c>
+      <c r="O25">
+        <v>0.5198620519344028</v>
+      </c>
+      <c r="P25">
+        <v>0.4250227990190287</v>
+      </c>
+      <c r="Q25">
+        <v>32.049509897574</v>
+      </c>
+      <c r="R25">
+        <v>192.297059385444</v>
+      </c>
+      <c r="S25">
+        <v>0.09619421964474753</v>
+      </c>
+      <c r="T25">
+        <v>0.1032245896618726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.2492</v>
+      </c>
+      <c r="H26">
+        <v>56.4984</v>
+      </c>
+      <c r="I26">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J26">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.255482</v>
+      </c>
+      <c r="N26">
+        <v>0.510964</v>
+      </c>
+      <c r="O26">
+        <v>0.03385952189990703</v>
+      </c>
+      <c r="P26">
+        <v>0.02768247599107402</v>
+      </c>
+      <c r="Q26">
+        <v>7.2171621144</v>
+      </c>
+      <c r="R26">
+        <v>28.8686484576</v>
+      </c>
+      <c r="S26">
+        <v>0.02166177516795336</v>
+      </c>
+      <c r="T26">
+        <v>0.01549661966049897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>28.2492</v>
+      </c>
+      <c r="H27">
+        <v>56.4984</v>
+      </c>
+      <c r="I27">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J27">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.731042</v>
+      </c>
+      <c r="N27">
+        <v>8.193125999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.3619502603258385</v>
+      </c>
+      <c r="P27">
+        <v>0.4438786563962321</v>
+      </c>
+      <c r="Q27">
+        <v>77.14975166640001</v>
+      </c>
+      <c r="R27">
+        <v>462.8985099984</v>
+      </c>
+      <c r="S27">
+        <v>0.231559240096123</v>
+      </c>
+      <c r="T27">
+        <v>0.2484827844085793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>28.2492</v>
+      </c>
+      <c r="H28">
+        <v>56.4984</v>
+      </c>
+      <c r="I28">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J28">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.164664</v>
+      </c>
+      <c r="N28">
+        <v>0.493992</v>
+      </c>
+      <c r="O28">
+        <v>0.02182323730879784</v>
+      </c>
+      <c r="P28">
+        <v>0.02676298463254288</v>
+      </c>
+      <c r="Q28">
+        <v>4.6516262688</v>
+      </c>
+      <c r="R28">
+        <v>27.9097576128</v>
+      </c>
+      <c r="S28">
+        <v>0.01396151018958624</v>
+      </c>
+      <c r="T28">
+        <v>0.0149818894077258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28.2492</v>
+      </c>
+      <c r="H29">
+        <v>56.4984</v>
+      </c>
+      <c r="I29">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J29">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05316166666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.159485</v>
+      </c>
+      <c r="O29">
+        <v>0.007045618152102916</v>
+      </c>
+      <c r="P29">
+        <v>0.008640412403684879</v>
+      </c>
+      <c r="Q29">
+        <v>1.501774554</v>
+      </c>
+      <c r="R29">
+        <v>9.010647324000001</v>
+      </c>
+      <c r="S29">
+        <v>0.004507464599803564</v>
+      </c>
+      <c r="T29">
+        <v>0.004836893375178444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28.2492</v>
+      </c>
+      <c r="H30">
+        <v>56.4984</v>
+      </c>
+      <c r="I30">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J30">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.41846</v>
+      </c>
+      <c r="N30">
+        <v>1.25538</v>
+      </c>
+      <c r="O30">
+        <v>0.05545931037895075</v>
+      </c>
+      <c r="P30">
+        <v>0.06801267155743752</v>
+      </c>
+      <c r="Q30">
+        <v>11.821160232</v>
+      </c>
+      <c r="R30">
+        <v>70.926961392</v>
+      </c>
+      <c r="S30">
+        <v>0.03548033300499356</v>
+      </c>
+      <c r="T30">
+        <v>0.0380734188502462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>28.2492</v>
+      </c>
+      <c r="H31">
+        <v>56.4984</v>
+      </c>
+      <c r="I31">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J31">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.922542</v>
+      </c>
+      <c r="N31">
+        <v>7.845084</v>
+      </c>
+      <c r="O31">
+        <v>0.5198620519344028</v>
+      </c>
+      <c r="P31">
+        <v>0.4250227990190287</v>
+      </c>
+      <c r="Q31">
+        <v>110.8086734664</v>
+      </c>
+      <c r="R31">
+        <v>443.2346938656</v>
+      </c>
+      <c r="S31">
+        <v>0.3325839898343293</v>
+      </c>
+      <c r="T31">
+        <v>0.2379272961552397</v>
       </c>
     </row>
   </sheetData>
